--- a/biology/Botanique/Giovanni_Passerini/Giovanni_Passerini.xlsx
+++ b/biology/Botanique/Giovanni_Passerini/Giovanni_Passerini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Passerini est un botaniste et un entomologiste italien, né le 16 juin 1816 ou 1819 à Pieve di Guastalla et mort le 17 avril 1893 à Parme.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut professeur de botanique à l’université de Parme. Il est l’auteur de très importants travaux sur les aphides. Sa collection, riche de 5 500 spécimens correspondant à 52 genres et 89 espèces, est actuellement conservée par le Muséum de l’université de Parme.
 En 1875, il est le premier président de la section de Parme du club alpin italien.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gli insetti autori delle galle del Terebinto e del Lentisco insieme ad alcune specie congeneri. Giornale Giardini Orticolt. 3: 258-265 (1856).
 Gli afidi con un prospetto dei generi ed alcune specie nuove Italiane. Parma : Tipografia Carmignani 40 pp. (1860).
